--- a/keywordautotest/res/testcase/Home.xlsx
+++ b/keywordautotest/res/testcase/Home.xlsx
@@ -1,23 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8370"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="18195" windowHeight="10170" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="001" sheetId="1" r:id="rId1"/>
+    <sheet name="Values" sheetId="3" r:id="rId1"/>
+    <sheet name="001" sheetId="2" r:id="rId2"/>
+    <sheet name="002" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'001'!$A$1:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'001'!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'002'!$A$1:$F$2</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Daisy Xiao</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Actions</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Object Properties</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
+  <si>
+    <t>Go to URL</t>
+  </si>
+  <si>
+    <t>(NA)</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>Steps</t>
   </si>
@@ -28,109 +90,736 @@
     <t>Action</t>
   </si>
   <si>
+    <t>ObjValue</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>ClassName</t>
+  </si>
+  <si>
+    <t>InnerText</t>
+  </si>
+  <si>
+    <t>TagName</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>ObjectRepository</t>
+  </si>
+  <si>
+    <t>SqlsOperation</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Take no action.</t>
+  </si>
+  <si>
+    <t>Click on any of the HTML control.</t>
+  </si>
+  <si>
+    <t>Navigate to specific URL.</t>
+  </si>
+  <si>
+    <t>Select drop down list, combox list and list box.</t>
+  </si>
+  <si>
+    <t>Type in HTML text box, rich text box and text area.</t>
+  </si>
+  <si>
+    <t>Check the check box and radio button.</t>
+  </si>
+  <si>
+    <t>HTML Class property.</t>
+  </si>
+  <si>
+    <t>Customed HTML Class property.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is used only when UI object can't be located via one property.
+When </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ObjectRepository</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is selected, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ObjectRepository.xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> file will be used to locate the UI object.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ObjValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> column format example:
+Format A: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WedEventRadioBtn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Result: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Object Locator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> column value of
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Workbook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = ObjectRepository.xlsx
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Worksheet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Common</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Object Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> column = WedEventRadioBtn
+will be used to locate the UI object.
+Format B: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OpsAdmin.WedEventRadioBtn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Result: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Object Locator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> column value of
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Workbook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = ObjectRepository.xlsx
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Worksheet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OpsAdmin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Object Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> column = WedEventRadioBtn
+will be used to locate the UI object.
+** </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ALT+ENTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> can be used in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Object Locator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> column to make the value readable.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>** ObjValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> column support wildcard *, e.g. *_retId
+** Element locator tool: Firebug</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+No object will be located by Object Locator.
+** When </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NA)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is selected, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ObjValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> must be left </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BLANK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>ClickAndWait</t>
+  </si>
+  <si>
+    <t>Hyperlink.</t>
+  </si>
+  <si>
+    <t>SelectIFrame</t>
+  </si>
+  <si>
+    <t>UnselectIFrame</t>
+  </si>
+  <si>
+    <t>SelectTab</t>
+  </si>
+  <si>
+    <t>SelectIFrame is used to select an iframe control by its search properties and values.
+And the coming steps are assumed to manipulate controls in the iframe until "UnselectIFrame"action is used.</t>
+  </si>
+  <si>
+    <t>MouseOver</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>Wait for the specified amount of time (in milliseconds).</t>
+  </si>
+  <si>
+    <t>BySelenium</t>
+  </si>
+  <si>
+    <t>If BySelenium is selected, you can use Keyword Driven Test as though you use Selenium IDE.</t>
+  </si>
+  <si>
+    <t>AssertTextPresent</t>
+  </si>
+  <si>
+    <t>AssertTextNotPresent</t>
+  </si>
+  <si>
+    <t>AssertElementPresent</t>
+  </si>
+  <si>
+    <t>AssertElementNotPresent</t>
+  </si>
+  <si>
+    <t>AssertLocation</t>
+  </si>
+  <si>
+    <t>AssertNotLocation</t>
+  </si>
+  <si>
+    <t>DragAndDrop</t>
+  </si>
+  <si>
+    <t>Drag an object from ObjProperty+ObjValue to object in Data.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Run SQL scripts in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> column.
+** Multiple SQL statements in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> column can be split by ";".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Same action as Click but with millisecond value in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> column for adding waiting time after Click action.
+** If no Data is defined, then it uses default timeout 60s.</t>
+    </r>
+  </si>
+  <si>
+    <t>When you use "UnselectIFrame" action, none of properties and values is needed. You can fill ObjProperty with "(NA)"</t>
+  </si>
+  <si>
+    <t>When you use "SelectTab" action, the property is assumed to be filled with name, and the value is the actual name(title) of the tab.</t>
+  </si>
+  <si>
+    <t>Can be used when selecting homepage top menu</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>Take screenshot of current screen and save to path defined in Setting "SnapshotFolder" with file name in "Data" column.</t>
+  </si>
+  <si>
+    <t>Clear</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssertTextEqual</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>ObjProperty</t>
-  </si>
-  <si>
-    <t>ObjValue</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>go to KWS HP</t>
-  </si>
-  <si>
-    <t>Go to URL</t>
-  </si>
-  <si>
-    <t>(NA)</t>
-  </si>
-  <si>
-    <t>http://qa.weddingshop.theknot.com/</t>
-  </si>
-  <si>
-    <t>enter search key word</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ctl00_tkShared_Header_txtHeaderSearchBox</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>click on search button</t>
-  </si>
-  <si>
-    <t>ClickAndWait</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>//span[@class='glyphicon glyphicon-search']</t>
-  </si>
-  <si>
-    <t>verifiy search result</t>
-  </si>
-  <si>
-    <t>AssertTextPresent</t>
-  </si>
-  <si>
-    <t>ctl00_MainContentArea_ctl00_ctl00_ctl00_ucSearchControl_MyResults_EntriesList_ctrl0_ctl00_hlnkProductName</t>
-  </si>
-  <si>
-    <t>dsgsgsg</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.163.com</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开网易首页</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="12"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
+      <color theme="10"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,13 +828,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,43 +855,73 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="44"/>
+        <color theme="3" tint="0.59996337778862885"/>
       </left>
       <right style="thin">
-        <color indexed="44"/>
+        <color theme="3" tint="0.59996337778862885"/>
       </right>
       <top style="thin">
-        <color indexed="44"/>
+        <color theme="3" tint="0.59996337778862885"/>
       </top>
       <bottom style="thin">
-        <color indexed="44"/>
+        <color theme="3" tint="0.59996337778862885"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -260,71 +985,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,8 +1182,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:shade val="99000"/>
                 <a:satMod val="350000"/>
-                <a:shade val="99000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -494,179 +1219,451 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="_h" fmla="val 21600"/>
-            <a:gd name="_w" fmla="val 21600"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600"/>
-          </a:pathLst>
-        </a:custGeom>
-        <a:gradFill rotWithShape="0">
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="739CC3"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="200000"/>
-        </a:ln>
-      </a:spPr>
-      <a:bodyPr/>
-      <a:lstStyle/>
-    </a:spDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="57.625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" ht="321.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="46.7109375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="46.75" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="F2" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Values!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Values!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.75" style="15" customWidth="1"/>
+    <col min="6" max="6" width="46.75" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
+      <c r="B2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D1048576">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="66" orientation="landscape"/>
-  <headerFooter alignWithMargins="0"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Values!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Values!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/keywordautotest/res/testcase/Home.xlsx
+++ b/keywordautotest/res/testcase/Home.xlsx
@@ -4,16 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="18195" windowHeight="10170" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="18195" windowHeight="10170" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="3" r:id="rId1"/>
-    <sheet name="001" sheetId="2" r:id="rId2"/>
-    <sheet name="002" sheetId="4" r:id="rId3"/>
+    <sheet name="H001" sheetId="2" r:id="rId2"/>
+    <sheet name="H002" sheetId="4" r:id="rId3"/>
+    <sheet name="H003" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'001'!$A$1:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'002'!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'H001'!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'H002'!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'H003'!$A$1:$F$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>Go to URL</t>
   </si>
@@ -735,6 +737,14 @@
   </si>
   <si>
     <t>打开网易首页</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.baidu.com</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.qq.com</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1501,7 +1511,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -1549,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1587,9 +1597,9 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -1666,4 +1676,92 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.75" style="15" customWidth="1"/>
+    <col min="6" max="6" width="46.75" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Values!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Values!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/keywordautotest/res/testcase/Home.xlsx
+++ b/keywordautotest/res/testcase/Home.xlsx
@@ -4,18 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="18195" windowHeight="10170" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="18195" windowHeight="10170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="3" r:id="rId1"/>
-    <sheet name="H001" sheetId="2" r:id="rId2"/>
-    <sheet name="H002" sheetId="4" r:id="rId3"/>
-    <sheet name="H003" sheetId="5" r:id="rId4"/>
+    <sheet name="001_HomeUITest" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'H001'!$A$1:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'H002'!$A$1:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'H003'!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'001_HomeUITest'!$A$1:$F$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -60,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>Go to URL</t>
   </si>
@@ -732,19 +728,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.163.com</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>打开网易首页</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>http://www.baidu.com</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.qq.com</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1509,9 +1497,9 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -1550,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>0</v>
@@ -1559,183 +1547,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Values!$C:$C</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Values!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="6" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.75" style="15" customWidth="1"/>
-    <col min="6" max="6" width="46.75" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Values!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Values!$C:$C</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="6" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.75" style="15" customWidth="1"/>
-    <col min="6" max="6" width="46.75" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
